--- a/案例6_拆分员工工资单/1 课程文件/员工花名册.xlsx
+++ b/案例6_拆分员工工资单/1 课程文件/员工花名册.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixingzeng/Documents/10.video/初级入门课/03 第三章 Excel 处理自动化 I/3.4 案例 6：拆分员工工资表/05.其他相关文件/case5/课程/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixingzeng/Documents/0.workspace/60.my_course/ai-py-intro-course-c3/案例6_拆分员工工资单/1 课程文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25DFFD93-DE76-6C44-96D4-07DE356736CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC74B4-09EF-3040-A2E1-95DE072EB802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2900" yWindow="880" windowWidth="26200" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,7 +742,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
